--- a/src/Excel/Bill_Excel/B1.xlsx
+++ b/src/Excel/Bill_Excel/B1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t/>
   </si>
@@ -29,7 +29,7 @@
     <t>Ngày:</t>
   </si>
   <si>
-    <t>2022-11-29 22:13:42</t>
+    <t>2022-12-04 12:28:23</t>
   </si>
   <si>
     <t>Staff:</t>
@@ -68,18 +68,6 @@
     <t>110.500 ₫</t>
   </si>
   <si>
-    <t>Gà nướng muối ớt (1/2 con)</t>
-  </si>
-  <si>
-    <t>70.000 ₫</t>
-  </si>
-  <si>
-    <t>59.500 ₫</t>
-  </si>
-  <si>
-    <t>178.500 ₫</t>
-  </si>
-  <si>
     <t>Bít tết đặc biệt (Nhỏ)</t>
   </si>
   <si>
@@ -89,19 +77,19 @@
     <t>Tổng:</t>
   </si>
   <si>
-    <t>379.000 ₫</t>
+    <t>200.500 ₫</t>
   </si>
   <si>
     <t>Tiền nhận:</t>
   </si>
   <si>
-    <t>10.000.000 ₫</t>
+    <t>1.111.111 ₫</t>
   </si>
   <si>
     <t>Tiền thối:</t>
   </si>
   <si>
-    <t>-9.621.000 ₫</t>
+    <t>-910.611 ₫</t>
   </si>
 </sst>
 </file>
@@ -641,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -764,98 +752,77 @@
         <v>18</v>
       </c>
       <c r="F12" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="G12" t="s" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="I12" t="s" s="4">
-        <v>20</v>
-      </c>
       <c r="K12" t="s" s="4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" t="n" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B13" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="F13" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G13" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="K13" t="s" s="4">
-        <v>23</v>
-      </c>
+      <c r="A13" s="6"/>
       <c r="L13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="6"/>
+      <c r="B14" t="s" s="2">
+        <v>8</v>
+      </c>
       <c r="L14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="6"/>
-      <c r="B15" t="s" s="2">
-        <v>8</v>
-      </c>
       <c r="L15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="6"/>
+      <c r="G16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s" s="4">
+        <v>21</v>
+      </c>
       <c r="L16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="6"/>
       <c r="G17" t="s" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I17" t="s" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="6"/>
       <c r="G18" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I18" t="s" s="4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="6"/>
-      <c r="G19" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="I19" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="24">
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="I4:L4"/>
@@ -873,17 +840,13 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:K16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:K18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:K19"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
